--- a/experiments/BS/BS50Tx50Rx/collisions.xlsx
+++ b/experiments/BS/BS50Tx50Rx/collisions.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60BE0E8-D16A-2245-84F9-DBF0800F74B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,10 +36,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -57,9 +73,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -80,7 +97,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -92,7 +109,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -938,20 +954,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>101599</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1231,41 +1253,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.4622</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.28449999999999998</v>
       </c>
     </row>

--- a/experiments/BS/BS50Tx50Rx/collisions.xlsx
+++ b/experiments/BS/BS50Tx50Rx/collisions.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60BE0E8-D16A-2245-84F9-DBF0800F74B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,7 +96,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -109,6 +108,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1253,26 +1253,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0.4622</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>5</v>
       </c>
